--- a/StateFarm/DataTest/TestExcelFile.xlsx
+++ b/StateFarm/DataTest/TestExcelFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shailahasib/IdeaProjects/WebAutomation_Team2/StateFarm/DataTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365C7546-3EFE-944B-993C-EF8FEAAFC457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5C00A5-6D61-3D43-A565-88D56A79C98D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -435,7 +435,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>11102</v>
+        <v>11101</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
